--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -1,40 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>原计划</t>
+  </si>
+  <si>
+    <t>执行情况</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>19:00-21:30</t>
+  </si>
+  <si>
+    <t>对老师讲课内容在Eclipse上尝试自行
+配置</t>
+  </si>
+  <si>
+    <t>内容出错，配置不成功</t>
+  </si>
+  <si>
+    <t>继续尝试</t>
+  </si>
+  <si>
+    <t>22:00-24:30</t>
+  </si>
+  <si>
+    <t>配置小乌龟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对日志的提交更新不成功
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>上传日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日志成功提交到远程仓库
+</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>项目框架搭建</t>
+  </si>
+  <si>
+    <t>参考老师给出的例子成功
+搭建，不过没有test</t>
+  </si>
+  <si>
+    <t>对项目模块还没有创建
+自己的类</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +456,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,42 +1050,143 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="18.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="23.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="18.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:5">
+      <c r="A2" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="40" customHeight="1" spans="1:5">
+      <c r="A3" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="55" customHeight="1" spans="1:4">
+      <c r="A4" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="76" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -46,7 +46,7 @@
     <t>继续尝试</t>
   </si>
   <si>
-    <t>22:00-24:30</t>
+    <t>21:00-23:30</t>
   </si>
   <si>
     <t>配置小乌龟</t>
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t>10:00-12:00</t>
+    <t>11:00-13:00</t>
   </si>
   <si>
     <t>上传日志</t>
@@ -89,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,69 +126,63 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +194,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -200,53 +216,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -263,12 +256,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,37 +346,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,127 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +447,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,33 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,6 +505,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,165 +539,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1052,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1136,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="76" customHeight="1" spans="1:5">
+    <row r="5" ht="59" customHeight="1" spans="1:5">
       <c r="A5" s="1">
         <v>43234</v>
       </c>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -82,6 +82,37 @@
   <si>
     <t>对项目模块还没有创建
 自己的类</t>
+  </si>
+  <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>创建实体类、
+测试类</t>
+  </si>
+  <si>
+    <t>测试类可以成功跑出来</t>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
+  </si>
+  <si>
+    <t>对代码补全</t>
+  </si>
+  <si>
+    <t>出现各种错误</t>
+  </si>
+  <si>
+    <t>一直调试到没有错误</t>
+  </si>
+  <si>
+    <t>8:30-10:00</t>
+  </si>
+  <si>
+    <t>连接数据库</t>
+  </si>
+  <si>
+    <t>成功连接到heidisql</t>
   </si>
 </sst>
 </file>
@@ -89,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +134,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -110,16 +149,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +248,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,37 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +287,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,67 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,43 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,8 +484,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,16 +525,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -509,32 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,151 +584,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1049,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
@@ -1146,6 +1180,52 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" ht="41" customHeight="1" spans="1:4">
+      <c r="A6" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:5">
+      <c r="A7" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="56" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>日期</t>
   </si>
@@ -36,8 +36,7 @@
     <t>19:00-21:30</t>
   </si>
   <si>
-    <t>对老师讲课内容在Eclipse上尝试自行
-配置</t>
+    <t>对老师讲课内容在Eclipse尝试自行配置</t>
   </si>
   <si>
     <t>内容出错，配置不成功</t>
@@ -52,8 +51,7 @@
     <t>配置小乌龟</t>
   </si>
   <si>
-    <t xml:space="preserve">对日志的提交更新不成功
-</t>
+    <t>对日志的提交更新不成功</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -66,8 +64,7 @@
     <t>上传日志</t>
   </si>
   <si>
-    <t xml:space="preserve">日志成功提交到远程仓库
-</t>
+    <t>日志成功提交到远程仓库</t>
   </si>
   <si>
     <t>16:00-18:00</t>
@@ -76,19 +73,16 @@
     <t>项目框架搭建</t>
   </si>
   <si>
-    <t>参考老师给出的例子成功
-搭建，不过没有test</t>
-  </si>
-  <si>
-    <t>对项目模块还没有创建
-自己的类</t>
+    <t>参考老师给出的例子成功搭建，不过没有test</t>
+  </si>
+  <si>
+    <t>对项目模块还没有创建自己的类</t>
   </si>
   <si>
     <t>14:00-18:00</t>
   </si>
   <si>
-    <t>创建实体类、
-测试类</t>
+    <t>创建实体类、测试类</t>
   </si>
   <si>
     <t>测试类可以成功跑出来</t>
@@ -113,6 +107,42 @@
   </si>
   <si>
     <t>成功连接到heidisql</t>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>service的创建</t>
+  </si>
+  <si>
+    <t>创建成功</t>
+  </si>
+  <si>
+    <t>web下文件的创建</t>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+  </si>
+  <si>
+    <t>web文件创建</t>
+  </si>
+  <si>
+    <t>成功写出来，运行出现404错误</t>
+  </si>
+  <si>
+    <t>尝试重新创建自己的包</t>
+  </si>
+  <si>
+    <t>9:30-12:00</t>
+  </si>
+  <si>
+    <t>创新创建包，并添加数据</t>
+  </si>
+  <si>
+    <t>成功运行并且可以显示数据</t>
+  </si>
+  <si>
+    <t>练习添加更多数据</t>
   </si>
 </sst>
 </file>
@@ -121,8 +151,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -134,9 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,22 +178,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +225,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,17 +277,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,46 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +511,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +568,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,55 +608,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,142 +626,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1083,19 +1110,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="18.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="23.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="18.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="35.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="41.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="29.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1115,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:5">
+    <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="1">
         <v>43230</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="40" customHeight="1" spans="1:5">
+    <row r="3" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="1">
         <v>43232</v>
       </c>
@@ -1149,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="55" customHeight="1" spans="1:4">
+    <row r="4" ht="20" customHeight="1" spans="1:4">
       <c r="A4" s="1">
         <v>43233</v>
       </c>
@@ -1163,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="59" customHeight="1" spans="1:5">
+    <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="1">
         <v>43234</v>
       </c>
@@ -1180,21 +1207,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="41" customHeight="1" spans="1:4">
+    <row r="6" ht="28" customHeight="1" spans="1:4">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="41" customHeight="1" spans="1:5">
+    <row r="7" ht="23" customHeight="1" spans="1:5">
       <c r="A7" s="1">
         <v>43237</v>
       </c>
@@ -1211,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="45" customHeight="1" spans="1:4">
+    <row r="8" ht="25" customHeight="1" spans="1:4">
       <c r="A8" s="1">
         <v>43238</v>
       </c>
@@ -1225,7 +1252,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="56" customHeight="1"/>
+    <row r="9" ht="25" customHeight="1" spans="1:5">
+      <c r="A9" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:5">
+      <c r="A10" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="1" spans="1:5">
+      <c r="A11" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -143,6 +143,33 @@
   </si>
   <si>
     <t>练习添加更多数据</t>
+  </si>
+  <si>
+    <t>完善web代码</t>
+  </si>
+  <si>
+    <t>路径出错，出现404错误</t>
+  </si>
+  <si>
+    <t>重新配置</t>
+  </si>
+  <si>
+    <t>16:00-18:30</t>
+  </si>
+  <si>
+    <t>更改了部分代码</t>
+  </si>
+  <si>
+    <t>可以显示数据</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>尝试显示数据表格</t>
+  </si>
+  <si>
+    <t>不能正常显示，路径错误</t>
   </si>
 </sst>
 </file>
@@ -150,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,6 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,15 +207,121 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,120 +334,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +535,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,210 +635,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1303,7 +1330,54 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1" spans="1:5">
+      <c r="A12" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>不能正常显示，路径错误</t>
+  </si>
+  <si>
+    <t>07:30-10:00</t>
+  </si>
+  <si>
+    <t>显示数据表格</t>
+  </si>
+  <si>
+    <t>可以实现</t>
   </si>
 </sst>
 </file>
@@ -177,8 +186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -192,13 +201,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -206,38 +298,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,83 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -344,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,41 +549,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +561,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +604,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +662,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1376,6 +1385,20 @@
       </c>
       <c r="E14" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>日期</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>可以实现</t>
+  </si>
+  <si>
+    <t>13：00-16：30</t>
+  </si>
+  <si>
+    <t>1.熟悉Jenkins,JIRA</t>
   </si>
 </sst>
 </file>
@@ -186,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,36 +207,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,32 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +313,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -290,55 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +359,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +479,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,157 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +573,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,45 +624,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -630,17 +633,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,145 +656,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,18 +1152,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="35.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="41.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="15.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="39.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="29.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,6 +1405,17 @@
       </c>
       <c r="D15" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日期</t>
   </si>
@@ -185,6 +185,31 @@
   </si>
   <si>
     <t>1.熟悉Jenkins,JIRA</t>
+  </si>
+  <si>
+    <t>熟悉</t>
+  </si>
+  <si>
+    <t>下载配置使用</t>
+  </si>
+  <si>
+    <t>下载安装Jenkins</t>
+  </si>
+  <si>
+    <t>不能正确配置</t>
+  </si>
+  <si>
+    <t>继续尝试配置</t>
+  </si>
+  <si>
+    <t>1.更换jdk，可以正确配置Jenkins
+2.讨论了项目立项</t>
+  </si>
+  <si>
+    <t>了解Jenkins以及项目立项</t>
+  </si>
+  <si>
+    <t>学习spring AOP</t>
   </si>
 </sst>
 </file>
@@ -192,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -207,17 +232,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,45 +338,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,59 +374,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,31 +384,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,151 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +575,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,21 +653,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,41 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,139 +693,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1152,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1407,7 +1435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43270</v>
       </c>
@@ -1416,6 +1444,46 @@
       </c>
       <c r="C16" t="s">
         <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:5">
+      <c r="A18" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>日期</t>
   </si>
@@ -210,6 +210,24 @@
   </si>
   <si>
     <t>学习spring AOP</t>
+  </si>
+  <si>
+    <t>学习了AOP，以及要实现的功能</t>
+  </si>
+  <si>
+    <t>让自己更理解做的模块</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>安装配置JIRA</t>
+  </si>
+  <si>
+    <t>安装了jira</t>
+  </si>
+  <si>
+    <t>完善代码注释</t>
   </si>
 </sst>
 </file>
@@ -217,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,6 +250,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,21 +264,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,48 +302,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +324,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -338,7 +363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,26 +377,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -384,25 +402,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,49 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,103 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +593,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,15 +664,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,64 +693,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,142 +711,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1180,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1476,7 +1491,7 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
@@ -1484,6 +1499,40 @@
       </c>
       <c r="E18" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
